--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema5a-Plxnb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema5a</t>
+  </si>
+  <si>
+    <t>Plxnb3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema5a</t>
-  </si>
-  <si>
-    <t>Plxnb3</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H2">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I2">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J2">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.367235</v>
+        <v>0.4035516666666667</v>
       </c>
       <c r="N2">
-        <v>1.101705</v>
+        <v>1.210655</v>
       </c>
       <c r="O2">
-        <v>0.1105916551411084</v>
+        <v>0.1338129350090618</v>
       </c>
       <c r="P2">
-        <v>0.1105916551411084</v>
+        <v>0.1338129350090617</v>
       </c>
       <c r="Q2">
-        <v>0.4199561134816667</v>
+        <v>0.3700451753350001</v>
       </c>
       <c r="R2">
-        <v>3.779605021335</v>
+        <v>3.330406578015</v>
       </c>
       <c r="S2">
-        <v>0.00268733113649415</v>
+        <v>0.002654101433344572</v>
       </c>
       <c r="T2">
-        <v>0.00268733113649415</v>
+        <v>0.002654101433344571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H3">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I3">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J3">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.147206</v>
       </c>
       <c r="O3">
-        <v>0.115159149071494</v>
+        <v>0.126799956981969</v>
       </c>
       <c r="P3">
-        <v>0.115159149071494</v>
+        <v>0.126799956981969</v>
       </c>
       <c r="Q3">
-        <v>0.4373005233913333</v>
+        <v>0.350651544342</v>
       </c>
       <c r="R3">
-        <v>3.935704710522</v>
+        <v>3.155863899078</v>
       </c>
       <c r="S3">
-        <v>0.002798319335732258</v>
+        <v>0.002515003109012471</v>
       </c>
       <c r="T3">
-        <v>0.002798319335732258</v>
+        <v>0.00251500310901247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H4">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I4">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J4">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.515964666666667</v>
+        <v>1.245432666666667</v>
       </c>
       <c r="N4">
-        <v>4.547894</v>
+        <v>3.736298</v>
       </c>
       <c r="O4">
-        <v>0.4565279497381931</v>
+        <v>0.4129706658366648</v>
       </c>
       <c r="P4">
-        <v>0.456527949738193</v>
+        <v>0.4129706658366648</v>
       </c>
       <c r="Q4">
-        <v>1.733600091464222</v>
+        <v>1.142025637786</v>
       </c>
       <c r="R4">
-        <v>15.602400823178</v>
+        <v>10.278230740074</v>
       </c>
       <c r="S4">
-        <v>0.01109343894388691</v>
+        <v>0.008191032025806243</v>
       </c>
       <c r="T4">
-        <v>0.01109343894388691</v>
+        <v>0.008191032025806242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H5">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I5">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J5">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.055037666666667</v>
+        <v>0.9844033333333333</v>
       </c>
       <c r="N5">
-        <v>3.165113</v>
+        <v>2.95321</v>
       </c>
       <c r="O5">
-        <v>0.3177212460492045</v>
+        <v>0.3264164421723045</v>
       </c>
       <c r="P5">
-        <v>0.3177212460492045</v>
+        <v>0.3264164421723045</v>
       </c>
       <c r="Q5">
-        <v>1.206501335847889</v>
+        <v>0.9026693089700001</v>
       </c>
       <c r="R5">
-        <v>10.858512022631</v>
+        <v>8.124023780730001</v>
       </c>
       <c r="S5">
-        <v>0.007720493884862471</v>
+        <v>0.00647427953790925</v>
       </c>
       <c r="T5">
-        <v>0.007720493884862471</v>
+        <v>0.00647427953790925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>120.491871</v>
       </c>
       <c r="I6">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J6">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.367235</v>
+        <v>0.4035516666666667</v>
       </c>
       <c r="N6">
-        <v>1.101705</v>
+        <v>1.210655</v>
       </c>
       <c r="O6">
-        <v>0.1105916551411084</v>
+        <v>0.1338129350090618</v>
       </c>
       <c r="P6">
-        <v>0.1105916551411084</v>
+        <v>0.1338129350090617</v>
       </c>
       <c r="Q6">
-        <v>14.749610748895</v>
+        <v>16.20823178727834</v>
       </c>
       <c r="R6">
-        <v>132.746496740055</v>
+        <v>145.874086085505</v>
       </c>
       <c r="S6">
-        <v>0.0943838818967561</v>
+        <v>0.1162514581622426</v>
       </c>
       <c r="T6">
-        <v>0.0943838818967561</v>
+        <v>0.1162514581622426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>120.491871</v>
       </c>
       <c r="I7">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J7">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.147206</v>
       </c>
       <c r="O7">
-        <v>0.115159149071494</v>
+        <v>0.126799956981969</v>
       </c>
       <c r="P7">
-        <v>0.115159149071494</v>
+        <v>0.126799956981969</v>
       </c>
       <c r="Q7">
         <v>15.358777484714</v>
@@ -883,10 +883,10 @@
         <v>138.228997362426</v>
       </c>
       <c r="S7">
-        <v>0.09828198620796853</v>
+        <v>0.1101588564144811</v>
       </c>
       <c r="T7">
-        <v>0.09828198620796853</v>
+        <v>0.1101588564144811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>120.491871</v>
       </c>
       <c r="I8">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J8">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.515964666666667</v>
+        <v>1.245432666666667</v>
       </c>
       <c r="N8">
-        <v>4.547894</v>
+        <v>3.736298</v>
       </c>
       <c r="O8">
-        <v>0.4565279497381931</v>
+        <v>0.4129706658366648</v>
       </c>
       <c r="P8">
-        <v>0.456527949738193</v>
+        <v>0.4129706658366648</v>
       </c>
       <c r="Q8">
-        <v>60.88713968551934</v>
+        <v>50.02150407039534</v>
       </c>
       <c r="R8">
-        <v>547.984257169674</v>
+        <v>450.193536633558</v>
       </c>
       <c r="S8">
-        <v>0.3896214414702355</v>
+        <v>0.3587728053232925</v>
       </c>
       <c r="T8">
-        <v>0.3896214414702354</v>
+        <v>0.3587728053232924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>120.491871</v>
       </c>
       <c r="I9">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J9">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.055037666666667</v>
+        <v>0.9844033333333333</v>
       </c>
       <c r="N9">
-        <v>3.165113</v>
+        <v>2.95321</v>
       </c>
       <c r="O9">
-        <v>0.3177212460492045</v>
+        <v>0.3264164421723045</v>
       </c>
       <c r="P9">
-        <v>0.3177212460492045</v>
+        <v>0.3264164421723045</v>
       </c>
       <c r="Q9">
-        <v>42.37448747738033</v>
+        <v>39.53753315065667</v>
       </c>
       <c r="R9">
-        <v>381.370387296423</v>
+        <v>355.83779835591</v>
       </c>
       <c r="S9">
-        <v>0.2711575708396416</v>
+        <v>0.2835778721099871</v>
       </c>
       <c r="T9">
-        <v>0.2711575708396416</v>
+        <v>0.2835778721099871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H10">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I10">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J10">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.367235</v>
+        <v>0.4035516666666667</v>
       </c>
       <c r="N10">
-        <v>1.101705</v>
+        <v>1.210655</v>
       </c>
       <c r="O10">
-        <v>0.1105916551411084</v>
+        <v>0.1338129350090618</v>
       </c>
       <c r="P10">
-        <v>0.1105916551411084</v>
+        <v>0.1338129350090617</v>
       </c>
       <c r="Q10">
-        <v>2.112076574501667</v>
+        <v>2.078444432966667</v>
       </c>
       <c r="R10">
-        <v>19.008689170515</v>
+        <v>18.7059998967</v>
       </c>
       <c r="S10">
-        <v>0.01351533876781155</v>
+        <v>0.0149073754134746</v>
       </c>
       <c r="T10">
-        <v>0.01351533876781155</v>
+        <v>0.01490737541347459</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H11">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I11">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J11">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.147206</v>
       </c>
       <c r="O11">
-        <v>0.115159149071494</v>
+        <v>0.126799956981969</v>
       </c>
       <c r="P11">
-        <v>0.115159149071494</v>
+        <v>0.126799956981969</v>
       </c>
       <c r="Q11">
-        <v>2.199306455655333</v>
+        <v>1.96951561276</v>
       </c>
       <c r="R11">
-        <v>19.793758100898</v>
+        <v>17.72564051484</v>
       </c>
       <c r="S11">
-        <v>0.01407352941709987</v>
+        <v>0.0141260974584754</v>
       </c>
       <c r="T11">
-        <v>0.01407352941709987</v>
+        <v>0.0141260974584754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H12">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I12">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J12">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.515964666666667</v>
+        <v>1.245432666666667</v>
       </c>
       <c r="N12">
-        <v>4.547894</v>
+        <v>3.736298</v>
       </c>
       <c r="O12">
-        <v>0.4565279497381931</v>
+        <v>0.4129706658366648</v>
       </c>
       <c r="P12">
-        <v>0.456527949738193</v>
+        <v>0.4129706658366648</v>
       </c>
       <c r="Q12">
-        <v>8.718758996933557</v>
+        <v>6.414451497746666</v>
       </c>
       <c r="R12">
-        <v>78.46883097240202</v>
+        <v>57.73006347971999</v>
       </c>
       <c r="S12">
-        <v>0.05579200247806586</v>
+        <v>0.04600682848756607</v>
       </c>
       <c r="T12">
-        <v>0.05579200247806585</v>
+        <v>0.04600682848756607</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H13">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I13">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J13">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.055037666666667</v>
+        <v>0.9844033333333333</v>
       </c>
       <c r="N13">
-        <v>3.165113</v>
+        <v>2.95321</v>
       </c>
       <c r="O13">
-        <v>0.3177212460492045</v>
+        <v>0.3264164421723045</v>
       </c>
       <c r="P13">
-        <v>0.3177212460492045</v>
+        <v>0.3264164421723045</v>
       </c>
       <c r="Q13">
-        <v>6.067832153753222</v>
+        <v>5.070051239933332</v>
       </c>
       <c r="R13">
-        <v>54.610489383779</v>
+        <v>45.63046115939999</v>
       </c>
       <c r="S13">
-        <v>0.03882851982463936</v>
+        <v>0.03636429052440812</v>
       </c>
       <c r="T13">
-        <v>0.03882851982463936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I14">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J14">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.367235</v>
-      </c>
-      <c r="N14">
-        <v>1.101705</v>
-      </c>
-      <c r="O14">
-        <v>0.1105916551411084</v>
-      </c>
-      <c r="P14">
-        <v>0.1105916551411084</v>
-      </c>
-      <c r="Q14">
-        <v>0.0007975120083333334</v>
-      </c>
-      <c r="R14">
-        <v>0.007177608075</v>
-      </c>
-      <c r="S14">
-        <v>5.103340046544435E-06</v>
-      </c>
-      <c r="T14">
-        <v>5.103340046544435E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I15">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J15">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.382402</v>
-      </c>
-      <c r="N15">
-        <v>1.147206</v>
-      </c>
-      <c r="O15">
-        <v>0.115159149071494</v>
-      </c>
-      <c r="P15">
-        <v>0.115159149071494</v>
-      </c>
-      <c r="Q15">
-        <v>0.0008304496766666666</v>
-      </c>
-      <c r="R15">
-        <v>0.007474047090000001</v>
-      </c>
-      <c r="S15">
-        <v>5.314110693367149E-06</v>
-      </c>
-      <c r="T15">
-        <v>5.31411069336715E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I16">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J16">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.515964666666667</v>
-      </c>
-      <c r="N16">
-        <v>4.547894</v>
-      </c>
-      <c r="O16">
-        <v>0.4565279497381931</v>
-      </c>
-      <c r="P16">
-        <v>0.456527949738193</v>
-      </c>
-      <c r="Q16">
-        <v>0.003292169934444445</v>
-      </c>
-      <c r="R16">
-        <v>0.02962952941</v>
-      </c>
-      <c r="S16">
-        <v>2.106684600472827E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.106684600472827E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I17">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J17">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.055037666666667</v>
-      </c>
-      <c r="N17">
-        <v>3.165113</v>
-      </c>
-      <c r="O17">
-        <v>0.3177212460492045</v>
-      </c>
-      <c r="P17">
-        <v>0.3177212460492045</v>
-      </c>
-      <c r="Q17">
-        <v>0.002291190132777778</v>
-      </c>
-      <c r="R17">
-        <v>0.020620711195</v>
-      </c>
-      <c r="S17">
-        <v>1.466150006103122E-05</v>
-      </c>
-      <c r="T17">
-        <v>1.466150006103122E-05</v>
+        <v>0.03636429052440812</v>
       </c>
     </row>
   </sheetData>
